--- a/biology/Médecine/Francesco_Canaveri/Francesco_Canaveri.xlsx
+++ b/biology/Médecine/Francesco_Canaveri/Francesco_Canaveri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francesco Canaveri, parfois francisé en François Canaveri (né en 1754 à Mondovì et mort en 1836 à Turin) est un médecin et professeur de médecine italien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francesco Canaveri, parfois francisé en François Canaveri (né en 1754 à Mondovì et mort en 1836 à Turin) est un médecin et professeur de médecine italien.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francesco Canaveri est né à Mondovì, dans l'actuelle province de Coni, au Piémont, alors dans le Royaume de Sardaigne. Il commence ses études de rhétorique et de philosophie à l'université de Turin[2]. En 1788, il a été élu au poste de préfet de l'École de médecine de Turin.
-En 1796, Francesco Canaveri est devenu professeur d'anatomie et de materia medica. Au cours de l'époque napoléonienne, Canaveri a été élu par les écoles de médecine au-delà des Alpes[3]. Entre 1800 - 1814 il a été nommé inspecteur des écoles de médecine. Il est l'auteur de plusieurs ouvrages de vulgarisation sur ce sujet : De vitalitatis oeconomia (1801), Osteologiae institutiones, (1809), Neuronomia (1836).
-Francesco Canaveri meurt en février 1836 à Turin à l'âge de 82 ans[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francesco Canaveri est né à Mondovì, dans l'actuelle province de Coni, au Piémont, alors dans le Royaume de Sardaigne. Il commence ses études de rhétorique et de philosophie à l'université de Turin. En 1788, il a été élu au poste de préfet de l'École de médecine de Turin.
+En 1796, Francesco Canaveri est devenu professeur d'anatomie et de materia medica. Au cours de l'époque napoléonienne, Canaveri a été élu par les écoles de médecine au-delà des Alpes. Entre 1800 - 1814 il a été nommé inspecteur des écoles de médecine. Il est l'auteur de plusieurs ouvrages de vulgarisation sur ce sujet : De vitalitatis oeconomia (1801), Osteologiae institutiones, (1809), Neuronomia (1836).
+Francesco Canaveri meurt en février 1836 à Turin à l'âge de 82 ans.
 Il s'agit probablement d'un descendant de Gaufridus de Canaveris.
 </t>
         </is>
